--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/16_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/16_455-55R22.xlsx
@@ -19,7 +19,274 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="145">
+  <si>
+    <t>Signal_Value_1</t>
+  </si>
+  <si>
+    <t>Signal_Value_2</t>
+  </si>
+  <si>
+    <t>Signal_Value_3</t>
+  </si>
+  <si>
+    <t>Signal_Value_4</t>
+  </si>
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
+  <si>
+    <t>Signal_Value_78</t>
+  </si>
+  <si>
+    <t>Signal_Value_79</t>
+  </si>
+  <si>
+    <t>Signal_Value_80</t>
+  </si>
+  <si>
+    <t>Signal_Value_81</t>
+  </si>
+  <si>
+    <t>Signal_Value_82</t>
+  </si>
+  <si>
+    <t>Signal_Value_83</t>
+  </si>
+  <si>
+    <t>Signal_Value_84</t>
+  </si>
+  <si>
+    <t>Signal_Value_85</t>
+  </si>
+  <si>
+    <t>Signal_Value_86</t>
+  </si>
+  <si>
+    <t>Signal_Value_87</t>
+  </si>
+  <si>
+    <t>Signal_Value_88</t>
+  </si>
+  <si>
+    <t>Signal_Value_89</t>
+  </si>
   <si>
     <t>Signal_Value_90</t>
   </si>
@@ -121,9 +388,6 @@
   </si>
   <si>
     <t>Signal_Value_123</t>
-  </si>
-  <si>
-    <t>Signal_Value_124</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -547,15 +811,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:DT6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:124">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -662,10 +926,274 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:124">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -674,31 +1202,31 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00846908235109697</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3188526872842686</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2077865211829298</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.08742545499143875</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.09129936990231718</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.02334904656840799</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.007103925862645527</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -710,25 +1238,25 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1068098464846829</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.120417380018447</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0110851649931781</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.01193216943766957</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.003301717500967987</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -740,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.002167633421949566</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -772,37 +1300,301 @@
       <c r="AJ2">
         <v>0</v>
       </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0.2196355719532953</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0.2175062493164483</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0.006898975754138933</v>
+      </c>
+      <c r="CS2">
+        <v>0.06426776745898022</v>
+      </c>
+      <c r="CT2">
+        <v>0.05335754072098193</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0.01125167663143978</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0.02114328453717861</v>
+      </c>
+      <c r="CY2">
+        <v>0.05204687645971066</v>
+      </c>
+      <c r="CZ2">
+        <v>0.0368982563707709</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0.1248933419868241</v>
+      </c>
+      <c r="DC2">
+        <v>0.06003522192767854</v>
+      </c>
+      <c r="DD2">
+        <v>0.06275205457833866</v>
+      </c>
+      <c r="DE2">
+        <v>0.06931318230421422</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
+      <c r="DT2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:124">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.1215229536578553</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.21200484227098</v>
       </c>
       <c r="D3">
-        <v>0.3767972457842637</v>
+        <v>0.176459890483466</v>
       </c>
       <c r="E3">
-        <v>0.05730741505477022</v>
+        <v>0.1406482397619001</v>
       </c>
       <c r="F3">
-        <v>0.1874661622207227</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.05028953164038577</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01430633411554578</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02891949993715875</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -811,31 +1603,31 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.02909824278344373</v>
+        <v>0.05492029517652754</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.04736252346441123</v>
       </c>
       <c r="O3">
-        <v>0.07808529692760699</v>
+        <v>0.01919178536067294</v>
       </c>
       <c r="P3">
-        <v>0.05873596993292772</v>
+        <v>0.0008521123644523043</v>
       </c>
       <c r="Q3">
-        <v>0.05597189309646743</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0008295373899893587</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.04386980213841559</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.04340876624378364</v>
       </c>
       <c r="U3">
-        <v>0.01178174454897287</v>
+        <v>0.04027445570934136</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -844,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.002336714839298201</v>
+        <v>0.04719451261016579</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.05999484282474914</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -862,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.004204609590031098</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.03348829541101149</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.002676484660683208</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -882,70 +1674,334 @@
       <c r="AJ3">
         <v>0</v>
       </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:124">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.1114823607994828</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.05866584440603417</v>
       </c>
       <c r="D4">
-        <v>0.04988328848184409</v>
+        <v>0.01914836712403654</v>
       </c>
       <c r="E4">
-        <v>0.07000401020138369</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3360009134340134</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.02445535884351198</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01402715727631138</v>
+        <v>0.01496037296707982</v>
       </c>
       <c r="I4">
-        <v>0.03234376884128307</v>
+        <v>0.07332372730753886</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.04348031552988332</v>
       </c>
       <c r="K4">
-        <v>0.03421934393457213</v>
+        <v>0.005995181323809322</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.02365514701520149</v>
+        <v>0.01772982278936244</v>
       </c>
       <c r="N4">
-        <v>0.001037573127988074</v>
+        <v>0.1626177172368014</v>
       </c>
       <c r="O4">
-        <v>0.01412041767665762</v>
+        <v>0.1603443256522078</v>
       </c>
       <c r="P4">
-        <v>0.2047407026575661</v>
+        <v>0.1613315760550853</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.06629977936121825</v>
       </c>
       <c r="R4">
-        <v>0.06830688201614321</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1022757003310224</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.01400824204286441</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -954,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.01077197464641256</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.03925960461343019</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.03054774307680192</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.01346297277801123</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -975,10 +2031,10 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.007657359152643557</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.003264134966993256</v>
+        <v>0.01057831433280406</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -992,10 +2048,274 @@
       <c r="AJ4">
         <v>0</v>
       </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
+      <c r="DT4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:124">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1007,25 +2327,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4380071043452757</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.00645876020859655</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2114089636925653</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.04120369649483067</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01787193087010551</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.01388636553372598</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1034,31 +2354,31 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.02817252535933436</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.02358377239963174</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.07605672664937278</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.02486100362702198</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.04444981017371454</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.01206184682424093</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.03225606474143606</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1067,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.02795287080593106</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1076,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0007109193021792769</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1085,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.001057638972037749</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1102,79 +2422,343 @@
       <c r="AJ5">
         <v>0</v>
       </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0.06725723290084042</v>
+      </c>
+      <c r="CP5">
+        <v>0.2549146403216088</v>
+      </c>
+      <c r="CQ5">
+        <v>0.2436142216029799</v>
+      </c>
+      <c r="CR5">
+        <v>0.04120134248324288</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0.04116938464640561</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0.07272003373897526</v>
+      </c>
+      <c r="CY5">
+        <v>0.01829315227331896</v>
+      </c>
+      <c r="CZ5">
+        <v>0.01166042709739422</v>
+      </c>
+      <c r="DA5">
+        <v>0.08902488728980973</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0.03898734954242097</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0.02248842873470457</v>
+      </c>
+      <c r="DG5">
+        <v>0.002265853524928497</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0.01406114784314024</v>
+      </c>
+      <c r="DJ5">
+        <v>0.05478880745111629</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0.006763229130816767</v>
+      </c>
+      <c r="DO5">
+        <v>0.0162658700768634</v>
+      </c>
+      <c r="DP5">
+        <v>0.004523991341433667</v>
+      </c>
+      <c r="DQ5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5">
+        <v>0</v>
+      </c>
+      <c r="DT5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:124">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.03584585377178551</v>
       </c>
       <c r="D6">
-        <v>0.23857682384639</v>
+        <v>0.07728796326787776</v>
       </c>
       <c r="E6">
-        <v>0.1183177961080697</v>
+        <v>0.07931531148872741</v>
       </c>
       <c r="F6">
-        <v>0.08334951731064449</v>
+        <v>0.07173800934652659</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.06278436430845714</v>
       </c>
       <c r="H6">
-        <v>0.09449887568067798</v>
+        <v>0.0341217085396544</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.04839285338636124</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.02050298932514442</v>
       </c>
       <c r="K6">
-        <v>0.03542897972147265</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0197009116047755</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.04573362731079309</v>
+        <v>0.007751198986701445</v>
       </c>
       <c r="O6">
-        <v>0.02666005970610753</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.04327400050540442</v>
+        <v>0.01713143513976089</v>
       </c>
       <c r="Q6">
-        <v>0.07869728635107162</v>
+        <v>0.056190969358984</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.06556614797097948</v>
       </c>
       <c r="S6">
-        <v>0.1696427746041301</v>
+        <v>0.06532626063367503</v>
       </c>
       <c r="T6">
-        <v>0.01757004225717736</v>
+        <v>0.07690036965001557</v>
       </c>
       <c r="U6">
-        <v>0.02818718048113442</v>
+        <v>0.04434058932707947</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.04082014952420849</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.02034076189165063</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>2.677739746317783E-05</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1186,30 +2770,294 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.003282425442212029</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.02744648971982644</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.04814658175394688</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.03468302755908621</v>
       </c>
       <c r="AF6">
-        <v>0.0003621245121511873</v>
+        <v>0.02735653296056787</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.02715620443941065</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.007545024809897419</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6">
+        <v>0</v>
+      </c>
+      <c r="DT6">
         <v>0</v>
       </c>
     </row>
@@ -1220,15 +3068,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:DT6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:124">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1335,10 +3183,274 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:124">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1347,201 +3459,465 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00846908235109697</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3273217696353655</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5351082908182954</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.6225337458097341</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.6225337458097341</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7138331157120512</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7138331157120512</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7371821622804592</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7442860881431047</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7442860881431047</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7442860881431047</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7442860881431047</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8510959346277877</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8510959346277877</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.9715133146462347</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.9715133146462347</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.9825984796394128</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.9945306490770824</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.9978323665780504</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.9978323665780504</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.9978323665780504</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.9978323665780504</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0.2196355719532953</v>
+      </c>
+      <c r="CO2">
+        <v>0.2196355719532953</v>
+      </c>
+      <c r="CP2">
+        <v>0.4371418212697435</v>
+      </c>
+      <c r="CQ2">
+        <v>0.4371418212697435</v>
+      </c>
+      <c r="CR2">
+        <v>0.4440407970238825</v>
+      </c>
+      <c r="CS2">
+        <v>0.5083085644828627</v>
+      </c>
+      <c r="CT2">
+        <v>0.5616661052038446</v>
+      </c>
+      <c r="CU2">
+        <v>0.5616661052038446</v>
+      </c>
+      <c r="CV2">
+        <v>0.5729177818352844</v>
+      </c>
+      <c r="CW2">
+        <v>0.5729177818352844</v>
+      </c>
+      <c r="CX2">
+        <v>0.594061066372463</v>
+      </c>
+      <c r="CY2">
+        <v>0.6461079428321737</v>
+      </c>
+      <c r="CZ2">
+        <v>0.6830061992029446</v>
+      </c>
+      <c r="DA2">
+        <v>0.6830061992029446</v>
+      </c>
+      <c r="DB2">
+        <v>0.8078995411897687</v>
+      </c>
+      <c r="DC2">
+        <v>0.8679347631174472</v>
+      </c>
+      <c r="DD2">
+        <v>0.9306868176957859</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>1</v>
+      </c>
+      <c r="DG2">
+        <v>1</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>1</v>
+      </c>
+      <c r="DJ2">
+        <v>1</v>
+      </c>
+      <c r="DK2">
+        <v>1</v>
+      </c>
+      <c r="DL2">
+        <v>1</v>
+      </c>
+      <c r="DM2">
+        <v>1</v>
+      </c>
+      <c r="DN2">
+        <v>1</v>
+      </c>
+      <c r="DO2">
+        <v>1</v>
+      </c>
+      <c r="DP2">
+        <v>1</v>
+      </c>
+      <c r="DQ2">
+        <v>1</v>
+      </c>
+      <c r="DR2">
+        <v>1</v>
+      </c>
+      <c r="DS2">
+        <v>1</v>
+      </c>
+      <c r="DT2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:124">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.1215229536578553</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.3335277959288353</v>
       </c>
       <c r="D3">
-        <v>0.3767972457842637</v>
+        <v>0.5099876864123013</v>
       </c>
       <c r="E3">
-        <v>0.4341046608390339</v>
+        <v>0.6506359261742014</v>
       </c>
       <c r="F3">
-        <v>0.6215708230597566</v>
+        <v>0.6506359261742014</v>
       </c>
       <c r="G3">
-        <v>0.6215708230597566</v>
+        <v>0.6506359261742014</v>
       </c>
       <c r="H3">
-        <v>0.6718603547001424</v>
+        <v>0.6506359261742014</v>
       </c>
       <c r="I3">
-        <v>0.6861666888156882</v>
+        <v>0.6506359261742014</v>
       </c>
       <c r="J3">
-        <v>0.715086188752847</v>
+        <v>0.6506359261742014</v>
       </c>
       <c r="K3">
-        <v>0.715086188752847</v>
+        <v>0.6506359261742014</v>
       </c>
       <c r="L3">
-        <v>0.715086188752847</v>
+        <v>0.6506359261742014</v>
       </c>
       <c r="M3">
-        <v>0.7441844315362908</v>
+        <v>0.7055562213507289</v>
       </c>
       <c r="N3">
-        <v>0.7441844315362908</v>
+        <v>0.7529187448151402</v>
       </c>
       <c r="O3">
-        <v>0.8222697284638978</v>
+        <v>0.7721105301758131</v>
       </c>
       <c r="P3">
-        <v>0.8810056983968255</v>
+        <v>0.7729626425402654</v>
       </c>
       <c r="Q3">
-        <v>0.936977591493293</v>
+        <v>0.7729626425402654</v>
       </c>
       <c r="R3">
-        <v>0.9378071288832823</v>
+        <v>0.7729626425402654</v>
       </c>
       <c r="S3">
-        <v>0.981676931021698</v>
+        <v>0.7729626425402654</v>
       </c>
       <c r="T3">
-        <v>0.981676931021698</v>
+        <v>0.816371408784049</v>
       </c>
       <c r="U3">
-        <v>0.9934586755706708</v>
+        <v>0.8566458644933904</v>
       </c>
       <c r="V3">
-        <v>0.9934586755706708</v>
+        <v>0.8566458644933904</v>
       </c>
       <c r="W3">
-        <v>0.9934586755706708</v>
+        <v>0.8566458644933904</v>
       </c>
       <c r="X3">
-        <v>0.995795390409969</v>
+        <v>0.9038403771035562</v>
       </c>
       <c r="Y3">
-        <v>0.995795390409969</v>
+        <v>0.9638352199283053</v>
       </c>
       <c r="Z3">
-        <v>0.995795390409969</v>
+        <v>0.9638352199283053</v>
       </c>
       <c r="AA3">
-        <v>0.995795390409969</v>
+        <v>0.9638352199283053</v>
       </c>
       <c r="AB3">
-        <v>0.995795390409969</v>
+        <v>0.9638352199283053</v>
       </c>
       <c r="AC3">
-        <v>0.995795390409969</v>
+        <v>0.9638352199283053</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9638352199283053</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9638352199283053</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9973235153393168</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -1555,120 +3931,648 @@
       <c r="AJ3">
         <v>1</v>
       </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
+        <v>1</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3">
+        <v>1</v>
+      </c>
+      <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>1</v>
+      </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3">
+        <v>1</v>
+      </c>
+      <c r="BO3">
+        <v>1</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>1</v>
+      </c>
+      <c r="BR3">
+        <v>1</v>
+      </c>
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BT3">
+        <v>1</v>
+      </c>
+      <c r="BU3">
+        <v>1</v>
+      </c>
+      <c r="BV3">
+        <v>1</v>
+      </c>
+      <c r="BW3">
+        <v>1</v>
+      </c>
+      <c r="BX3">
+        <v>1</v>
+      </c>
+      <c r="BY3">
+        <v>1</v>
+      </c>
+      <c r="BZ3">
+        <v>1</v>
+      </c>
+      <c r="CA3">
+        <v>1</v>
+      </c>
+      <c r="CB3">
+        <v>1</v>
+      </c>
+      <c r="CC3">
+        <v>1</v>
+      </c>
+      <c r="CD3">
+        <v>1</v>
+      </c>
+      <c r="CE3">
+        <v>1</v>
+      </c>
+      <c r="CF3">
+        <v>1</v>
+      </c>
+      <c r="CG3">
+        <v>1</v>
+      </c>
+      <c r="CH3">
+        <v>1</v>
+      </c>
+      <c r="CI3">
+        <v>1</v>
+      </c>
+      <c r="CJ3">
+        <v>1</v>
+      </c>
+      <c r="CK3">
+        <v>1</v>
+      </c>
+      <c r="CL3">
+        <v>1</v>
+      </c>
+      <c r="CM3">
+        <v>1</v>
+      </c>
+      <c r="CN3">
+        <v>1</v>
+      </c>
+      <c r="CO3">
+        <v>1</v>
+      </c>
+      <c r="CP3">
+        <v>1</v>
+      </c>
+      <c r="CQ3">
+        <v>1</v>
+      </c>
+      <c r="CR3">
+        <v>1</v>
+      </c>
+      <c r="CS3">
+        <v>1</v>
+      </c>
+      <c r="CT3">
+        <v>1</v>
+      </c>
+      <c r="CU3">
+        <v>1</v>
+      </c>
+      <c r="CV3">
+        <v>1</v>
+      </c>
+      <c r="CW3">
+        <v>1</v>
+      </c>
+      <c r="CX3">
+        <v>1</v>
+      </c>
+      <c r="CY3">
+        <v>1</v>
+      </c>
+      <c r="CZ3">
+        <v>1</v>
+      </c>
+      <c r="DA3">
+        <v>1</v>
+      </c>
+      <c r="DB3">
+        <v>1</v>
+      </c>
+      <c r="DC3">
+        <v>1</v>
+      </c>
+      <c r="DD3">
+        <v>1</v>
+      </c>
+      <c r="DE3">
+        <v>1</v>
+      </c>
+      <c r="DF3">
+        <v>1</v>
+      </c>
+      <c r="DG3">
+        <v>1</v>
+      </c>
+      <c r="DH3">
+        <v>1</v>
+      </c>
+      <c r="DI3">
+        <v>1</v>
+      </c>
+      <c r="DJ3">
+        <v>1</v>
+      </c>
+      <c r="DK3">
+        <v>1</v>
+      </c>
+      <c r="DL3">
+        <v>1</v>
+      </c>
+      <c r="DM3">
+        <v>1</v>
+      </c>
+      <c r="DN3">
+        <v>1</v>
+      </c>
+      <c r="DO3">
+        <v>1</v>
+      </c>
+      <c r="DP3">
+        <v>1</v>
+      </c>
+      <c r="DQ3">
+        <v>1</v>
+      </c>
+      <c r="DR3">
+        <v>1</v>
+      </c>
+      <c r="DS3">
+        <v>1</v>
+      </c>
+      <c r="DT3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:124">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.1114823607994828</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.170148205205517</v>
       </c>
       <c r="D4">
-        <v>0.04988328848184409</v>
+        <v>0.1892965723295535</v>
       </c>
       <c r="E4">
-        <v>0.1198872986832278</v>
+        <v>0.1892965723295535</v>
       </c>
       <c r="F4">
-        <v>0.4558882121172412</v>
+        <v>0.1892965723295535</v>
       </c>
       <c r="G4">
-        <v>0.4803435709607532</v>
+        <v>0.1892965723295535</v>
       </c>
       <c r="H4">
-        <v>0.4943707282370646</v>
+        <v>0.2042569452966334</v>
       </c>
       <c r="I4">
-        <v>0.5267144970783476</v>
+        <v>0.2775806726041722</v>
       </c>
       <c r="J4">
-        <v>0.5267144970783476</v>
+        <v>0.3210609881340555</v>
       </c>
       <c r="K4">
-        <v>0.5609338410129198</v>
+        <v>0.3270561694578648</v>
       </c>
       <c r="L4">
-        <v>0.5609338410129198</v>
+        <v>0.3270561694578648</v>
       </c>
       <c r="M4">
-        <v>0.5845889880281212</v>
+        <v>0.3447859922472272</v>
       </c>
       <c r="N4">
-        <v>0.5856265611561092</v>
+        <v>0.5074037094840287</v>
       </c>
       <c r="O4">
-        <v>0.5997469788327668</v>
+        <v>0.6677480351362365</v>
       </c>
       <c r="P4">
-        <v>0.804487681490333</v>
+        <v>0.8290796111913218</v>
       </c>
       <c r="Q4">
-        <v>0.804487681490333</v>
+        <v>0.89537939055254</v>
       </c>
       <c r="R4">
-        <v>0.8727945635064762</v>
+        <v>0.89537939055254</v>
       </c>
       <c r="S4">
-        <v>0.9750702638374986</v>
+        <v>0.89537939055254</v>
       </c>
       <c r="T4">
-        <v>0.9750702638374986</v>
+        <v>0.89537939055254</v>
       </c>
       <c r="U4">
-        <v>0.9890785058803631</v>
+        <v>0.89537939055254</v>
       </c>
       <c r="V4">
-        <v>0.9890785058803631</v>
+        <v>0.89537939055254</v>
       </c>
       <c r="W4">
-        <v>0.9890785058803631</v>
+        <v>0.89537939055254</v>
       </c>
       <c r="X4">
-        <v>0.9890785058803631</v>
+        <v>0.9061513651989526</v>
       </c>
       <c r="Y4">
-        <v>0.9890785058803631</v>
+        <v>0.9454109698123827</v>
       </c>
       <c r="Z4">
-        <v>0.9890785058803631</v>
+        <v>0.9759587128891847</v>
       </c>
       <c r="AA4">
-        <v>0.9890785058803631</v>
+        <v>0.9894216856671959</v>
       </c>
       <c r="AB4">
-        <v>0.9890785058803631</v>
+        <v>0.9894216856671959</v>
       </c>
       <c r="AC4">
-        <v>0.9890785058803631</v>
+        <v>0.9894216856671959</v>
       </c>
       <c r="AD4">
-        <v>0.9890785058803631</v>
+        <v>0.9894216856671959</v>
       </c>
       <c r="AE4">
-        <v>0.9967358650330066</v>
+        <v>0.9894216856671959</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BF4">
+        <v>1</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="BK4">
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <v>1</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <v>1</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
+        <v>1</v>
+      </c>
+      <c r="BV4">
+        <v>1</v>
+      </c>
+      <c r="BW4">
+        <v>1</v>
+      </c>
+      <c r="BX4">
+        <v>1</v>
+      </c>
+      <c r="BY4">
+        <v>1</v>
+      </c>
+      <c r="BZ4">
+        <v>1</v>
+      </c>
+      <c r="CA4">
+        <v>1</v>
+      </c>
+      <c r="CB4">
+        <v>1</v>
+      </c>
+      <c r="CC4">
+        <v>1</v>
+      </c>
+      <c r="CD4">
+        <v>1</v>
+      </c>
+      <c r="CE4">
+        <v>1</v>
+      </c>
+      <c r="CF4">
+        <v>1</v>
+      </c>
+      <c r="CG4">
+        <v>1</v>
+      </c>
+      <c r="CH4">
+        <v>1</v>
+      </c>
+      <c r="CI4">
+        <v>1</v>
+      </c>
+      <c r="CJ4">
+        <v>1</v>
+      </c>
+      <c r="CK4">
+        <v>1</v>
+      </c>
+      <c r="CL4">
+        <v>1</v>
+      </c>
+      <c r="CM4">
+        <v>1</v>
+      </c>
+      <c r="CN4">
+        <v>1</v>
+      </c>
+      <c r="CO4">
+        <v>1</v>
+      </c>
+      <c r="CP4">
+        <v>1</v>
+      </c>
+      <c r="CQ4">
+        <v>1</v>
+      </c>
+      <c r="CR4">
+        <v>1</v>
+      </c>
+      <c r="CS4">
+        <v>1</v>
+      </c>
+      <c r="CT4">
+        <v>1</v>
+      </c>
+      <c r="CU4">
+        <v>1</v>
+      </c>
+      <c r="CV4">
+        <v>1</v>
+      </c>
+      <c r="CW4">
+        <v>1</v>
+      </c>
+      <c r="CX4">
+        <v>1</v>
+      </c>
+      <c r="CY4">
+        <v>1</v>
+      </c>
+      <c r="CZ4">
+        <v>1</v>
+      </c>
+      <c r="DA4">
+        <v>1</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DC4">
+        <v>1</v>
+      </c>
+      <c r="DD4">
+        <v>1</v>
+      </c>
+      <c r="DE4">
+        <v>1</v>
+      </c>
+      <c r="DF4">
+        <v>1</v>
+      </c>
+      <c r="DG4">
+        <v>1</v>
+      </c>
+      <c r="DH4">
+        <v>1</v>
+      </c>
+      <c r="DI4">
+        <v>1</v>
+      </c>
+      <c r="DJ4">
+        <v>1</v>
+      </c>
+      <c r="DK4">
+        <v>1</v>
+      </c>
+      <c r="DL4">
+        <v>1</v>
+      </c>
+      <c r="DM4">
+        <v>1</v>
+      </c>
+      <c r="DN4">
+        <v>1</v>
+      </c>
+      <c r="DO4">
+        <v>1</v>
+      </c>
+      <c r="DP4">
+        <v>1</v>
+      </c>
+      <c r="DQ4">
+        <v>1</v>
+      </c>
+      <c r="DR4">
+        <v>1</v>
+      </c>
+      <c r="DS4">
+        <v>1</v>
+      </c>
+      <c r="DT4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:124">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1680,201 +4584,465 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4380071043452757</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4444658645538722</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6558748282464375</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.6558748282464375</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6970785247412682</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.7149504556113737</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7288368211450997</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7288368211450997</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7288368211450997</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7570093465044341</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7570093465044341</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7805931189040658</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8566498455534386</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.8815108491804606</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.9259606593541752</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.9380225061784161</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.9380225061784161</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.9702785709198521</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.9702785709198521</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.9702785709198521</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.9982314417257832</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.9982314417257832</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.9982314417257832</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.9989423610279624</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.9989423610279624</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.9989423610279624</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0.06725723290084042</v>
+      </c>
+      <c r="CP5">
+        <v>0.3221718732224492</v>
+      </c>
+      <c r="CQ5">
+        <v>0.565786094825429</v>
+      </c>
+      <c r="CR5">
+        <v>0.6069874373086719</v>
+      </c>
+      <c r="CS5">
+        <v>0.6069874373086719</v>
+      </c>
+      <c r="CT5">
+        <v>0.6069874373086719</v>
+      </c>
+      <c r="CU5">
+        <v>0.6481568219550775</v>
+      </c>
+      <c r="CV5">
+        <v>0.6481568219550775</v>
+      </c>
+      <c r="CW5">
+        <v>0.6481568219550775</v>
+      </c>
+      <c r="CX5">
+        <v>0.7208768556940528</v>
+      </c>
+      <c r="CY5">
+        <v>0.7391700079673718</v>
+      </c>
+      <c r="CZ5">
+        <v>0.750830435064766</v>
+      </c>
+      <c r="DA5">
+        <v>0.8398553223545757</v>
+      </c>
+      <c r="DB5">
+        <v>0.8398553223545757</v>
+      </c>
+      <c r="DC5">
+        <v>0.8788426718969967</v>
+      </c>
+      <c r="DD5">
+        <v>0.8788426718969967</v>
+      </c>
+      <c r="DE5">
+        <v>0.8788426718969967</v>
+      </c>
+      <c r="DF5">
+        <v>0.9013311006317013</v>
+      </c>
+      <c r="DG5">
+        <v>0.9035969541566298</v>
+      </c>
+      <c r="DH5">
+        <v>0.9035969541566298</v>
+      </c>
+      <c r="DI5">
+        <v>0.91765810199977</v>
+      </c>
+      <c r="DJ5">
+        <v>0.9724469094508863</v>
+      </c>
+      <c r="DK5">
+        <v>0.9724469094508863</v>
+      </c>
+      <c r="DL5">
+        <v>0.9724469094508863</v>
+      </c>
+      <c r="DM5">
+        <v>0.9724469094508863</v>
+      </c>
+      <c r="DN5">
+        <v>0.979210138581703</v>
+      </c>
+      <c r="DO5">
+        <v>0.9954760086585664</v>
+      </c>
+      <c r="DP5">
+        <v>1</v>
+      </c>
+      <c r="DQ5">
+        <v>1</v>
+      </c>
+      <c r="DR5">
+        <v>1</v>
+      </c>
+      <c r="DS5">
+        <v>1</v>
+      </c>
+      <c r="DT5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:124">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.03584585377178551</v>
       </c>
       <c r="D6">
-        <v>0.23857682384639</v>
+        <v>0.1131338170396633</v>
       </c>
       <c r="E6">
-        <v>0.3568946199544597</v>
+        <v>0.1924491285283907</v>
       </c>
       <c r="F6">
-        <v>0.4402441372651042</v>
+        <v>0.2641871378749173</v>
       </c>
       <c r="G6">
-        <v>0.4402441372651042</v>
+        <v>0.3269715021833744</v>
       </c>
       <c r="H6">
-        <v>0.5347430129457822</v>
+        <v>0.3610932107230288</v>
       </c>
       <c r="I6">
-        <v>0.5347430129457822</v>
+        <v>0.40948606410939</v>
       </c>
       <c r="J6">
-        <v>0.5347430129457822</v>
+        <v>0.4299890534345345</v>
       </c>
       <c r="K6">
-        <v>0.5701719926672548</v>
+        <v>0.4299890534345345</v>
       </c>
       <c r="L6">
-        <v>0.5701719926672548</v>
+        <v>0.4299890534345345</v>
       </c>
       <c r="M6">
-        <v>0.5898729042720303</v>
+        <v>0.4299890534345345</v>
       </c>
       <c r="N6">
-        <v>0.6356065315828234</v>
+        <v>0.4377402524212359</v>
       </c>
       <c r="O6">
-        <v>0.662266591288931</v>
+        <v>0.4377402524212359</v>
       </c>
       <c r="P6">
-        <v>0.7055405917943354</v>
+        <v>0.4548716875609968</v>
       </c>
       <c r="Q6">
-        <v>0.784237878145407</v>
+        <v>0.5110626569199809</v>
       </c>
       <c r="R6">
-        <v>0.784237878145407</v>
+        <v>0.5766288048909604</v>
       </c>
       <c r="S6">
-        <v>0.9538806527495372</v>
+        <v>0.6419550655246353</v>
       </c>
       <c r="T6">
-        <v>0.9714506950067145</v>
+        <v>0.7188554351746509</v>
       </c>
       <c r="U6">
-        <v>0.999637875487849</v>
+        <v>0.7631960245017304</v>
       </c>
       <c r="V6">
-        <v>0.999637875487849</v>
+        <v>0.8040161740259389</v>
       </c>
       <c r="W6">
-        <v>0.999637875487849</v>
+        <v>0.8243569359175896</v>
       </c>
       <c r="X6">
-        <v>0.999637875487849</v>
+        <v>0.8243837133150528</v>
       </c>
       <c r="Y6">
-        <v>0.999637875487849</v>
+        <v>0.8243837133150528</v>
       </c>
       <c r="Z6">
-        <v>0.999637875487849</v>
+        <v>0.8243837133150528</v>
       </c>
       <c r="AA6">
-        <v>0.999637875487849</v>
+        <v>0.8243837133150528</v>
       </c>
       <c r="AB6">
-        <v>0.999637875487849</v>
+        <v>0.8276661387572648</v>
       </c>
       <c r="AC6">
-        <v>0.999637875487849</v>
+        <v>0.8551126284770912</v>
       </c>
       <c r="AD6">
-        <v>0.999637875487849</v>
+        <v>0.9032592102310382</v>
       </c>
       <c r="AE6">
-        <v>0.999637875487849</v>
+        <v>0.9379422377901244</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9652987707506923</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.992454975190103</v>
       </c>
       <c r="AH6">
         <v>1</v>
@@ -1883,6 +5051,270 @@
         <v>1</v>
       </c>
       <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6">
+        <v>1</v>
+      </c>
+      <c r="BE6">
+        <v>1</v>
+      </c>
+      <c r="BF6">
+        <v>1</v>
+      </c>
+      <c r="BG6">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>1</v>
+      </c>
+      <c r="BI6">
+        <v>1</v>
+      </c>
+      <c r="BJ6">
+        <v>1</v>
+      </c>
+      <c r="BK6">
+        <v>1</v>
+      </c>
+      <c r="BL6">
+        <v>1</v>
+      </c>
+      <c r="BM6">
+        <v>1</v>
+      </c>
+      <c r="BN6">
+        <v>1</v>
+      </c>
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
+        <v>1</v>
+      </c>
+      <c r="BR6">
+        <v>1</v>
+      </c>
+      <c r="BS6">
+        <v>1</v>
+      </c>
+      <c r="BT6">
+        <v>1</v>
+      </c>
+      <c r="BU6">
+        <v>1</v>
+      </c>
+      <c r="BV6">
+        <v>1</v>
+      </c>
+      <c r="BW6">
+        <v>1</v>
+      </c>
+      <c r="BX6">
+        <v>1</v>
+      </c>
+      <c r="BY6">
+        <v>1</v>
+      </c>
+      <c r="BZ6">
+        <v>1</v>
+      </c>
+      <c r="CA6">
+        <v>1</v>
+      </c>
+      <c r="CB6">
+        <v>1</v>
+      </c>
+      <c r="CC6">
+        <v>1</v>
+      </c>
+      <c r="CD6">
+        <v>1</v>
+      </c>
+      <c r="CE6">
+        <v>1</v>
+      </c>
+      <c r="CF6">
+        <v>1</v>
+      </c>
+      <c r="CG6">
+        <v>1</v>
+      </c>
+      <c r="CH6">
+        <v>1</v>
+      </c>
+      <c r="CI6">
+        <v>1</v>
+      </c>
+      <c r="CJ6">
+        <v>1</v>
+      </c>
+      <c r="CK6">
+        <v>1</v>
+      </c>
+      <c r="CL6">
+        <v>1</v>
+      </c>
+      <c r="CM6">
+        <v>1</v>
+      </c>
+      <c r="CN6">
+        <v>1</v>
+      </c>
+      <c r="CO6">
+        <v>1</v>
+      </c>
+      <c r="CP6">
+        <v>1</v>
+      </c>
+      <c r="CQ6">
+        <v>1</v>
+      </c>
+      <c r="CR6">
+        <v>1</v>
+      </c>
+      <c r="CS6">
+        <v>1</v>
+      </c>
+      <c r="CT6">
+        <v>1</v>
+      </c>
+      <c r="CU6">
+        <v>1</v>
+      </c>
+      <c r="CV6">
+        <v>1</v>
+      </c>
+      <c r="CW6">
+        <v>1</v>
+      </c>
+      <c r="CX6">
+        <v>1</v>
+      </c>
+      <c r="CY6">
+        <v>1</v>
+      </c>
+      <c r="CZ6">
+        <v>1</v>
+      </c>
+      <c r="DA6">
+        <v>1</v>
+      </c>
+      <c r="DB6">
+        <v>1</v>
+      </c>
+      <c r="DC6">
+        <v>1</v>
+      </c>
+      <c r="DD6">
+        <v>1</v>
+      </c>
+      <c r="DE6">
+        <v>1</v>
+      </c>
+      <c r="DF6">
+        <v>1</v>
+      </c>
+      <c r="DG6">
+        <v>1</v>
+      </c>
+      <c r="DH6">
+        <v>1</v>
+      </c>
+      <c r="DI6">
+        <v>1</v>
+      </c>
+      <c r="DJ6">
+        <v>1</v>
+      </c>
+      <c r="DK6">
+        <v>1</v>
+      </c>
+      <c r="DL6">
+        <v>1</v>
+      </c>
+      <c r="DM6">
+        <v>1</v>
+      </c>
+      <c r="DN6">
+        <v>1</v>
+      </c>
+      <c r="DO6">
+        <v>1</v>
+      </c>
+      <c r="DP6">
+        <v>1</v>
+      </c>
+      <c r="DQ6">
+        <v>1</v>
+      </c>
+      <c r="DR6">
+        <v>1</v>
+      </c>
+      <c r="DS6">
+        <v>1</v>
+      </c>
+      <c r="DT6">
         <v>1</v>
       </c>
     </row>
@@ -1901,66 +5333,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5351082908182954</v>
+        <v>0.5083085644828627</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -1969,21 +5401,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -1992,16 +5424,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.1215229536578553</v>
       </c>
       <c r="F3">
-        <v>0.6215708230597566</v>
+        <v>0.5099876864123013</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -2010,39 +5442,39 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.1892965723295535</v>
       </c>
       <c r="F4">
-        <v>0.5267144970783476</v>
+        <v>0.5074037094840287</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -2051,36 +5483,36 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6558748282464375</v>
+        <v>0.565786094825429</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2092,21 +5524,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -2115,16 +5547,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5347430129457822</v>
+        <v>0.5110626569199809</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -2133,16 +5565,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2160,66 +5592,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7138331157120512</v>
+        <v>0.8078995411897687</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -2228,21 +5660,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -2251,16 +5683,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.1215229536578553</v>
       </c>
       <c r="F3">
-        <v>0.715086188752847</v>
+        <v>0.7055562213507289</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -2269,39 +5701,39 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>15</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.1892965723295535</v>
       </c>
       <c r="F4">
-        <v>0.804487681490333</v>
+        <v>0.8290796111913218</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -2310,39 +5742,39 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7149504556113737</v>
+        <v>0.7208768556940528</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -2351,21 +5783,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -2374,16 +5806,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7055405917943354</v>
+        <v>0.7188554351746509</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -2392,16 +5824,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2419,66 +5851,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8510959346277877</v>
+        <v>0.8078995411897687</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -2487,21 +5919,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -2510,16 +5942,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.1215229536578553</v>
       </c>
       <c r="F3">
-        <v>0.8222697284638978</v>
+        <v>0.816371408784049</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -2528,39 +5960,39 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>15</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.1892965723295535</v>
       </c>
       <c r="F4">
-        <v>0.804487681490333</v>
+        <v>0.8290796111913218</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -2569,36 +6001,36 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8566498455534386</v>
+        <v>0.8398553223545757</v>
       </c>
       <c r="G5">
         <v>14</v>
@@ -2610,21 +6042,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -2633,16 +6065,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9538806527495372</v>
+        <v>0.8040161740259389</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -2651,16 +6083,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2678,66 +6110,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9715133146462347</v>
+        <v>0.9306868176957859</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -2746,21 +6178,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -2769,16 +6201,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.1215229536578553</v>
       </c>
       <c r="F3">
-        <v>0.936977591493293</v>
+        <v>0.9038403771035562</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -2787,39 +6219,39 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.1892965723295535</v>
       </c>
       <c r="F4">
-        <v>0.9750702638374986</v>
+        <v>0.9061513651989526</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -2828,39 +6260,39 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9259606593541752</v>
+        <v>0.9013311006317013</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -2869,21 +6301,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -2892,16 +6324,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9538806527495372</v>
+        <v>0.9032592102310382</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -2910,16 +6342,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
